--- a/data/2020-z/survey_data_test.xlsx
+++ b/data/2020-z/survey_data_test.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhiru\Dropbox\Conference, Project, Publication\Publications\Potential_Team Forming Project\Stats_2020_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/workspace/git/TT/ProjectAssignment_github/data/2020-z/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F68FBC1-6CB6-42F3-B5D2-7E979D4C4E29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8BD7DC55-32B5-A541-ADA3-8B75B4BD9CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23640" yWindow="828" windowWidth="18804" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4000" yWindow="11840" windowWidth="34400" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="coded_simplified data" sheetId="4" r:id="rId1"/>
-    <sheet name="raw data" sheetId="1" r:id="rId2"/>
-    <sheet name="coded data" sheetId="3" r:id="rId3"/>
-    <sheet name="variable description" sheetId="2" r:id="rId4"/>
+    <sheet name="students" sheetId="4" r:id="rId1"/>
+    <sheet name="projects" sheetId="5" r:id="rId2"/>
+    <sheet name="raw data" sheetId="1" r:id="rId3"/>
+    <sheet name="coded data" sheetId="3" r:id="rId4"/>
+    <sheet name="variable description" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="149">
   <si>
     <t>What is your SDU email address?</t>
   </si>
@@ -343,13 +344,148 @@
   </si>
   <si>
     <t>value_statsclass</t>
+  </si>
+  <si>
+    <t>grp_id;group;username;type;priority_list;student_id;full_name;email;timestamp</t>
+  </si>
+  <si>
+    <t>grp_id</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>priority_list</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>sasni19</t>
+  </si>
+  <si>
+    <t>algjo19</t>
+  </si>
+  <si>
+    <t>dejur19</t>
+  </si>
+  <si>
+    <t>emile19</t>
+  </si>
+  <si>
+    <t>jofra18</t>
+  </si>
+  <si>
+    <t>kafog19</t>
+  </si>
+  <si>
+    <t>lekon19</t>
+  </si>
+  <si>
+    <t>lisal19</t>
+  </si>
+  <si>
+    <t>loped19</t>
+  </si>
+  <si>
+    <t>marma19</t>
+  </si>
+  <si>
+    <t>mauze19</t>
+  </si>
+  <si>
+    <t>olhan19</t>
+  </si>
+  <si>
+    <t>supet19</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>min_cap</t>
+  </si>
+  <si>
+    <t>max_cap</t>
+  </si>
+  <si>
+    <t>prj_id</t>
+  </si>
+  <si>
+    <t>instit</t>
+  </si>
+  <si>
+    <t>institute</t>
+  </si>
+  <si>
+    <t>mini</t>
+  </si>
+  <si>
+    <t>wl</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>pedagocy</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>kafog20</t>
+  </si>
+  <si>
+    <t>1 2 3 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 3 4 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -360,6 +496,13 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -425,6 +568,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,728 +883,1064 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2B8F9E-894C-42A0-AABA-5071DE0127D0}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
         <v>67</v>
       </c>
+      <c r="I1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2">
+        <v>483913</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="9">
+        <v>3</v>
+      </c>
+      <c r="P2" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="R2" s="9">
+        <v>6</v>
+      </c>
+      <c r="S2" s="9">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="T2" s="9">
+        <v>5</v>
+      </c>
+      <c r="U2" s="9">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="V2" s="9">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3">
+        <v>482842</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="9">
+        <v>2</v>
+      </c>
+      <c r="P3" s="9">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>6</v>
+      </c>
+      <c r="R3" s="9">
+        <v>6</v>
+      </c>
+      <c r="S3" s="9">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="T3" s="9">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="U3" s="9">
+        <v>6</v>
+      </c>
+      <c r="V3" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4">
+        <v>478334</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="9">
+        <v>4</v>
+      </c>
+      <c r="P4" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>5</v>
+      </c>
+      <c r="R4" s="9">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="S4" s="9">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="T4" s="9">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="U4" s="9">
+        <v>5</v>
+      </c>
+      <c r="V4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5">
+        <v>377657</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="9">
+        <v>5</v>
+      </c>
+      <c r="P5" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="R5" s="9">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="S5" s="9">
+        <v>6</v>
+      </c>
+      <c r="T5" s="9">
+        <v>6</v>
+      </c>
+      <c r="U5" s="9">
+        <v>6</v>
+      </c>
+      <c r="V5" s="9">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6">
+        <v>467632</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="9">
+        <v>2</v>
+      </c>
+      <c r="P6" s="9">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="R6" s="9">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="S6" s="9">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="T6" s="9">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="U6" s="9">
+        <v>4</v>
+      </c>
+      <c r="V6" s="9">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7">
+        <v>166753902</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>4</v>
+      </c>
+      <c r="R7" s="9">
+        <v>5</v>
+      </c>
+      <c r="S7" s="9">
+        <v>2</v>
+      </c>
+      <c r="T7" s="9">
+        <v>3</v>
+      </c>
+      <c r="U7" s="9">
+        <v>3</v>
+      </c>
+      <c r="V7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8">
+        <v>166753902</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="R8" s="9">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="S8" s="9">
+        <v>2</v>
+      </c>
+      <c r="T8" s="9">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="U8" s="9">
+        <v>4</v>
+      </c>
+      <c r="V8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9">
+        <v>377990</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="9">
+        <v>3</v>
+      </c>
+      <c r="P9" s="9">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>5</v>
+      </c>
+      <c r="R9" s="9">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="S9" s="9">
+        <v>4</v>
+      </c>
+      <c r="T9" s="9">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="U9" s="9">
+        <v>5</v>
+      </c>
+      <c r="V9" s="9">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10">
+        <v>168256751</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="9">
+        <v>3</v>
+      </c>
+      <c r="P10" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>4</v>
+      </c>
+      <c r="R10" s="9">
+        <v>4</v>
+      </c>
+      <c r="S10" s="9">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="T10" s="9">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="U10" s="9">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="V10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11">
+        <v>478448</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="9">
+        <v>3</v>
+      </c>
+      <c r="P11" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>6</v>
+      </c>
+      <c r="R11" s="9">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="S11" s="9">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="T11" s="9">
+        <v>5</v>
+      </c>
+      <c r="U11" s="9">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="V11" s="9">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="R12" s="9">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="S12" s="9">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="T12" s="9">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="U12" s="9">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="V12" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13">
+        <v>482785</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="9">
+        <v>2</v>
+      </c>
+      <c r="P13" s="9">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="R13" s="9">
+        <v>5</v>
+      </c>
+      <c r="S13" s="9">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="T13" s="9">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="U13" s="9">
+        <v>5</v>
+      </c>
+      <c r="V13" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14">
+        <v>475674</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="9">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>6</v>
+      </c>
+      <c r="R14" s="9">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="S14" s="9">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="T14" s="9">
+        <v>6</v>
+      </c>
+      <c r="U14" s="9">
+        <v>5</v>
+      </c>
+      <c r="V14" s="9">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15">
+        <v>481282</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="R15" s="9">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="S15" s="9">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="T15" s="9">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="U15" s="9">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="V15" s="9">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1D65C0-242A-EE4C-9C63-F7C9241A899D}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <v>483913</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="9">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="K2" s="9">
-        <v>6</v>
-      </c>
-      <c r="L2" s="9">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="M2" s="9">
-        <v>5</v>
-      </c>
-      <c r="N2" s="9">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O2" s="9">
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <v>482842</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="9">
-        <v>2</v>
-      </c>
-      <c r="I3" s="9">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="J3" s="9">
-        <v>6</v>
-      </c>
-      <c r="K3" s="9">
-        <v>6</v>
-      </c>
-      <c r="L3" s="9">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="M3" s="9">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="N3" s="9">
-        <v>6</v>
-      </c>
-      <c r="O3" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4">
-        <v>478334</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="D4">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>65</v>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="9">
-        <v>4</v>
-      </c>
-      <c r="I4" s="9">
-        <v>5</v>
-      </c>
-      <c r="J4" s="9">
-        <v>5</v>
-      </c>
-      <c r="K4" s="9">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="L4" s="9">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="M4" s="9">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="N4" s="9">
-        <v>5</v>
-      </c>
-      <c r="O4" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>377657</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="9">
-        <v>5</v>
-      </c>
-      <c r="I5" s="9">
-        <v>6</v>
-      </c>
-      <c r="J5" s="9">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="K5" s="9">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="L5" s="9">
-        <v>6</v>
-      </c>
-      <c r="M5" s="9">
-        <v>6</v>
-      </c>
-      <c r="N5" s="9">
-        <v>6</v>
-      </c>
-      <c r="O5" s="9">
-        <v>3.6666666666666665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>467632</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2</v>
-      </c>
-      <c r="I6" s="9">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="J6" s="9">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="K6" s="9">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="L6" s="9">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="M6" s="9">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="N6" s="9">
-        <v>4</v>
-      </c>
-      <c r="O6" s="9">
-        <v>3.6666666666666665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>166753902</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
-        <v>4</v>
-      </c>
-      <c r="J7" s="9">
-        <v>4</v>
-      </c>
-      <c r="K7" s="9">
-        <v>5</v>
-      </c>
-      <c r="L7" s="9">
-        <v>2</v>
-      </c>
-      <c r="M7" s="9">
-        <v>3</v>
-      </c>
-      <c r="N7" s="9">
-        <v>3</v>
-      </c>
-      <c r="O7" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8">
-        <v>166753902</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>5</v>
-      </c>
-      <c r="J8" s="9">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="K8" s="9">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="L8" s="9">
-        <v>2</v>
-      </c>
-      <c r="M8" s="9">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="N8" s="9">
-        <v>4</v>
-      </c>
-      <c r="O8" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
-        <v>377990</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="9">
-        <v>3</v>
-      </c>
-      <c r="I9" s="9">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="J9" s="9">
-        <v>5</v>
-      </c>
-      <c r="K9" s="9">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="L9" s="9">
-        <v>4</v>
-      </c>
-      <c r="M9" s="9">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="N9" s="9">
-        <v>5</v>
-      </c>
-      <c r="O9" s="9">
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>168256751</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="9">
-        <v>3</v>
-      </c>
-      <c r="I10" s="9">
-        <v>5</v>
-      </c>
-      <c r="J10" s="9">
-        <v>4</v>
-      </c>
-      <c r="K10" s="9">
-        <v>4</v>
-      </c>
-      <c r="L10" s="9">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="M10" s="9">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="N10" s="9">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="O10" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11">
-        <v>478448</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="9">
-        <v>3</v>
-      </c>
-      <c r="I11" s="9">
-        <v>5</v>
-      </c>
-      <c r="J11" s="9">
-        <v>6</v>
-      </c>
-      <c r="K11" s="9">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="L11" s="9">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="M11" s="9">
-        <v>5</v>
-      </c>
-      <c r="N11" s="9">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="O11" s="9">
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="J12" s="9">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K12" s="9">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="L12" s="9">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="M12" s="9">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="N12" s="9">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="O12" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13">
-        <v>482785</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="9">
-        <v>2</v>
-      </c>
-      <c r="I13" s="9">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="J13" s="9">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="K13" s="9">
-        <v>5</v>
-      </c>
-      <c r="L13" s="9">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="M13" s="9">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="N13" s="9">
-        <v>5</v>
-      </c>
-      <c r="O13" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14">
-        <v>475674</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="J14" s="9">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="L14" s="9">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="M14" s="9">
-        <v>6</v>
-      </c>
-      <c r="N14" s="9">
-        <v>5</v>
-      </c>
-      <c r="O14" s="9">
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <v>481282</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="J15" s="9">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="K15" s="9">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="L15" s="9">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="M15" s="9">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="N15" s="9">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="O15" s="9">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
@@ -1476,19 +1956,18 @@
       <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="29" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1577,7 +2056,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
@@ -1666,7 +2145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -1755,7 +2234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
@@ -1844,7 +2323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -1933,7 +2412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -2022,7 +2501,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -2111,7 +2590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -2200,7 +2679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -2289,7 +2768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
@@ -2378,7 +2857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -2467,7 +2946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -2556,7 +3035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -2645,7 +3124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -2734,7 +3213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -2823,7 +3302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -2912,7 +3391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -3001,7 +3480,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -3090,7 +3569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -3179,7 +3658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -3268,7 +3747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -3357,7 +3836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -3454,7 +3933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DBDBA5-2BC0-442F-82AD-6484D2DDBC98}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
@@ -3462,37 +3941,37 @@
       <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5546875" customWidth="1"/>
-    <col min="21" max="21" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.6640625" customWidth="1"/>
     <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.88671875" customWidth="1"/>
+    <col min="26" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" customWidth="1"/>
     <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.88671875" customWidth="1"/>
+    <col min="30" max="31" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.83203125" customWidth="1"/>
     <col min="33" max="35" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3602,7 +4081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -3719,7 +4198,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -3836,7 +4315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>64</v>
       </c>
@@ -3953,7 +4432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
@@ -4070,7 +4549,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -4187,7 +4666,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -4304,7 +4783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
@@ -4421,7 +4900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -4538,7 +5017,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -4655,7 +5134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -4772,7 +5251,7 @@
         <v>4.333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -4889,7 +5368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -5006,7 +5485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -5123,7 +5602,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -5245,7 +5724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF5D1D8-AF88-4F07-A8B3-8ABFA9B61EB0}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -5253,13 +5732,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -5267,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -5275,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5283,7 +5762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -5291,7 +5770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -5299,7 +5778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -5307,7 +5786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -5315,7 +5794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -5323,7 +5802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="121" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -5331,7 +5810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="121" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -5339,7 +5818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="215.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="133" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -5347,7 +5826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="164.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="109" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -5355,7 +5834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="154.19999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="97" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -5363,7 +5842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="164.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="109" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -5371,7 +5850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="215.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="133" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -5379,7 +5858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="225.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="133" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -5387,7 +5866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="121" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -5395,7 +5874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="215.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="133" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5403,7 +5882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="205.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="133" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -5411,7 +5890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="215.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="133" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -5419,7 +5898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="205.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="121" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -5427,7 +5906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="215.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="133" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -5435,7 +5914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="215.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="133" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -5443,7 +5922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="109" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -5451,7 +5930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="174.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="109" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -5459,7 +5938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="215.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="121" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -5467,7 +5946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="121" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -5475,7 +5954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="109" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -5483,7 +5962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="109" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>96</v>
       </c>
